--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -5,9 +5,41 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="login" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>datakey</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>errormessage</t>
+  </si>
+  <si>
+    <t>Login_Valid</t>
+  </si>
+  <si>
+    <t>validuser</t>
+  </si>
+  <si>
+    <t>validpass</t>
+  </si>
+  <si>
+    <t>Login_InvalidUsername</t>
+  </si>
+  <si>
+    <t>invaliduser</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -23,6 +55,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -53,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -78,16 +115,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -127,23 +179,35 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -166,7 +230,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -183,10 +247,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -363,11 +427,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -376,34 +443,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -651,12 +718,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -947,7 +1014,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1225,35 +1292,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5547" style="1" customWidth="1"/>
+    <col min="2" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -5,13 +5,33 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId4"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="login" sheetId="2" r:id="rId5"/>
+    <sheet name="user" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+  <si>
+    <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
   <si>
     <t>datakey</t>
   </si>
@@ -38,6 +58,173 @@
   </si>
   <si>
     <t>invaliduser</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Middler Name</t>
+  </si>
+  <si>
+    <t>Linkedin Url</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>User Comments</t>
+  </si>
+  <si>
+    <t>Visa Status</t>
+  </si>
+  <si>
+    <t>Role Status</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>User_MandatoryFields</t>
+  </si>
+  <si>
+    <t>BDDTesters_</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>H1-B</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>User_AllFields</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>http://www.linkedin.com/test123</t>
+    </r>
+  </si>
+  <si>
+    <t>test.user@gmail.com</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Testing for user</t>
+  </si>
+  <si>
+    <t>User_MissingFirstName</t>
+  </si>
+  <si>
+    <t>First Name is mandatory</t>
+  </si>
+  <si>
+    <t>User_MissingLastName</t>
+  </si>
+  <si>
+    <t>Last Name is mandatory</t>
+  </si>
+  <si>
+    <t>User_MissingLocation</t>
+  </si>
+  <si>
+    <t>Location is mandatory</t>
+  </si>
+  <si>
+    <t>User_MissingPhone</t>
+  </si>
+  <si>
+    <t>Phone number is mandatory</t>
+  </si>
+  <si>
+    <t>User_MissingUserRole</t>
+  </si>
+  <si>
+    <t>User Role is mandatory</t>
+  </si>
+  <si>
+    <t>User_MissingRoleStatus</t>
+  </si>
+  <si>
+    <t>Role Status is mandatory</t>
+  </si>
+  <si>
+    <t>User_MissingVisaStatus</t>
+  </si>
+  <si>
+    <t>Visa Status is mandatory</t>
+  </si>
+  <si>
+    <t>User_InvalidFirstName</t>
+  </si>
+  <si>
+    <t>Invalid&amp;User_</t>
+  </si>
+  <si>
+    <t>Invalid First Name</t>
+  </si>
+  <si>
+    <t>User_InvalidLastName</t>
+  </si>
+  <si>
+    <t>Invalid$Last</t>
+  </si>
+  <si>
+    <t>Invalid Last Name</t>
+  </si>
+  <si>
+    <t>User_InvalidEmail</t>
+  </si>
+  <si>
+    <t>Invalidemail</t>
+  </si>
+  <si>
+    <t>Invalid Email id</t>
   </si>
 </sst>
 </file>
@@ -47,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -56,6 +243,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -69,8 +267,19 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,12 +294,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -100,76 +321,91 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,35 +415,65 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -227,6 +493,9 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -1292,60 +1561,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'login'!R1C1" tooltip="" display="login"/>
+    <hyperlink ref="D12" location="'user'!R1C1" tooltip="" display="user"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5547" style="1" customWidth="1"/>
-    <col min="2" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5547" style="6" customWidth="1"/>
+    <col min="2" max="6" width="16.3516" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="A3" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1354,4 +1695,625 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="26.6172" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.6719" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="15" customWidth="1"/>
+    <col min="5" max="6" width="13.5625" style="15" customWidth="1"/>
+    <col min="7" max="14" width="10.9219" style="15" customWidth="1"/>
+    <col min="15" max="15" width="26.1562" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="16.3516" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" t="s" s="17">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" t="s" s="18">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" t="s" s="18">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" t="s" s="18">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" t="s" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" ht="20.25" customHeight="1">
+      <c r="A9" t="s" s="18">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="20.25" customHeight="1">
+      <c r="A10" t="s" s="18">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
+      <c r="A11" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" t="s" s="18">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" t="s" s="16">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s" s="13">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s" s="13">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E4" r:id="rId2" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E5" r:id="rId3" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E6" r:id="rId4" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E7" r:id="rId5" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E8" r:id="rId6" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E9" r:id="rId7" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E10" r:id="rId8" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E11" r:id="rId9" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E12" r:id="rId10" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E13" r:id="rId11" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -225,6 +225,42 @@
   </si>
   <si>
     <t>Invalid Email id</t>
+  </si>
+  <si>
+    <t>User_EditMandatoryFields</t>
+  </si>
+  <si>
+    <t>User_EditAllFields</t>
+  </si>
+  <si>
+    <t>User_EditMissingFirstName</t>
+  </si>
+  <si>
+    <t>User_EditMissingLastName</t>
+  </si>
+  <si>
+    <t>User_EditMissingLocation</t>
+  </si>
+  <si>
+    <t>User_EditMissingPhone</t>
+  </si>
+  <si>
+    <t>User_EditMissingUserRole</t>
+  </si>
+  <si>
+    <t>User_EditMissingRoleStatus</t>
+  </si>
+  <si>
+    <t>User_EditMissingVisaStatus</t>
+  </si>
+  <si>
+    <t>User_EditInvalidFirstName</t>
+  </si>
+  <si>
+    <t>User_EditInvalidLastName</t>
+  </si>
+  <si>
+    <t>User_EditInvalidEmail</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2250,49 +2286,583 @@
       </c>
     </row>
     <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" t="s" s="16">
+      <c r="A13" t="s" s="18">
         <v>65</v>
       </c>
-      <c r="B13" t="s" s="13">
+      <c r="B13" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="C13" t="s" s="13">
+      <c r="C13" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="D13" t="s" s="13">
+      <c r="D13" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="E13" t="s" s="13">
+      <c r="E13" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="F13" t="s" s="13">
+      <c r="F13" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="G13" t="s" s="13">
+      <c r="G13" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="H13" t="s" s="13">
+      <c r="H13" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="I13" t="s" s="13">
+      <c r="I13" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="J13" t="s" s="13">
+      <c r="J13" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="K13" t="s" s="13">
+      <c r="K13" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="L13" t="s" s="13">
+      <c r="L13" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="M13" t="s" s="13">
+      <c r="M13" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="N13" t="s" s="13">
+      <c r="N13" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="O13" t="s" s="13">
+      <c r="O13" t="s" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" ht="20.25" customHeight="1">
+      <c r="A14" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="A15" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" t="s" s="16">
+        <v>70</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="20.25" customHeight="1">
+      <c r="A17" t="s" s="17">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M17" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O17" t="s" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="20.25" customHeight="1">
+      <c r="A18" t="s" s="18">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" customHeight="1">
+      <c r="A19" t="s" s="18">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="A20" t="s" s="18">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M20" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" t="s" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" ht="20.25" customHeight="1">
+      <c r="A21" t="s" s="18">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="20.25" customHeight="1">
+      <c r="A22" t="s" s="18">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="20.25" customHeight="1">
+      <c r="A23" t="s" s="18">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" ht="20.25" customHeight="1">
+      <c r="A24" t="s" s="18">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="O24" t="s" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" ht="20.25" customHeight="1">
+      <c r="A25" t="s" s="16">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s" s="13">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s" s="13">
         <v>67</v>
       </c>
     </row>
@@ -2309,6 +2879,17 @@
     <hyperlink ref="E11" r:id="rId9" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E12" r:id="rId10" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E13" r:id="rId11" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E15" r:id="rId12" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E16" r:id="rId13" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E17" r:id="rId14" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E18" r:id="rId15" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E19" r:id="rId16" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E20" r:id="rId17" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E21" r:id="rId18" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E22" r:id="rId19" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E23" r:id="rId20" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E24" r:id="rId21" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E25" r:id="rId22" location="" tooltip="" display="http://www.linkedin.com/test123"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="login" sheetId="2" r:id="rId5"/>
-    <sheet name="user" sheetId="3" r:id="rId6"/>
+    <sheet name="reset" sheetId="3" r:id="rId6"/>
+    <sheet name="user" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -60,6 +61,84 @@
     <t>invaliduser</t>
   </si>
   <si>
+    <t>Invalid username!</t>
+  </si>
+  <si>
+    <t>Login_InvalidPassword</t>
+  </si>
+  <si>
+    <t>Validuser</t>
+  </si>
+  <si>
+    <t>invalidpass</t>
+  </si>
+  <si>
+    <t>Invalid password!</t>
+  </si>
+  <si>
+    <t>Login_BlankUsername</t>
+  </si>
+  <si>
+    <t>Validpass</t>
+  </si>
+  <si>
+    <t>Username is mandatory</t>
+  </si>
+  <si>
+    <t>Login_BlankPassword</t>
+  </si>
+  <si>
+    <t>Validauser</t>
+  </si>
+  <si>
+    <t>Password is mandatory</t>
+  </si>
+  <si>
+    <t>Login_BlankFields</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>Retype Password</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>PasswordReset_Valid</t>
+  </si>
+  <si>
+    <t>Newvalidpass</t>
+  </si>
+  <si>
+    <t>Your password has been reset. Please click here to login.</t>
+  </si>
+  <si>
+    <t>PasswordReset_Invalid</t>
+  </si>
+  <si>
+    <t>Newinvalidpass</t>
+  </si>
+  <si>
+    <t>Please try again</t>
+  </si>
+  <si>
+    <t>PasswordReset_EmptyNewPass</t>
+  </si>
+  <si>
+    <t>PasswordReset_EmptyRetypePass</t>
+  </si>
+  <si>
+    <t>PasswordReset_EmptyFields</t>
+  </si>
+  <si>
+    <t>PasswordReset_Mismatch</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -69,7 +148,7 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Middler Name</t>
+    <t>Middle Name</t>
   </si>
   <si>
     <t>Linkedin Url</t>
@@ -100,9 +179,6 @@
   </si>
   <si>
     <t>User Role</t>
-  </si>
-  <si>
-    <t>Message</t>
   </si>
   <si>
     <t>User_MandatoryFields</t>
@@ -158,6 +234,12 @@
     <t>Testing for user</t>
   </si>
   <si>
+    <t>User_ForMultiDelete1</t>
+  </si>
+  <si>
+    <t>User_ForMultiDelete2</t>
+  </si>
+  <si>
     <t>User_MissingFirstName</t>
   </si>
   <si>
@@ -270,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -302,6 +384,16 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <u val="single"/>
@@ -347,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -441,6 +533,21 @@
         <color indexed="13"/>
       </top>
       <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
         <color indexed="14"/>
       </bottom>
       <diagonal/>
@@ -451,7 +558,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -476,9 +583,6 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -488,29 +592,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,6 +658,8 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffd3d3d3"/>
+      <rgbColor rgb="ff1f1f1f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1642,7 +1766,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1653,7 +1777,23 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>15</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1662,22 +1802,24 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" location="'login'!R1C1" tooltip="" display="login"/>
-    <hyperlink ref="D12" location="'user'!R1C1" tooltip="" display="user"/>
+    <hyperlink ref="D12" location="'reset'!R1C1" tooltip="" display="reset"/>
+    <hyperlink ref="D14" location="'user'!R1C1" tooltip="" display="user"/>
   </hyperlinks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5547" style="6" customWidth="1"/>
-    <col min="2" max="6" width="16.3516" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.4531" style="6" customWidth="1"/>
+    <col min="2" max="3" width="16.3516" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5156" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1693,36 +1835,80 @@
       <c r="D1" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="9">
+      <c r="A2" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="10">
+      <c r="B2" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B3" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="C3" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" t="s" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" t="s" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" t="s" s="14">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1735,20 +1921,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.6172" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.6719" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.6719" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="15" customWidth="1"/>
-    <col min="5" max="6" width="13.5625" style="15" customWidth="1"/>
-    <col min="7" max="14" width="10.9219" style="15" customWidth="1"/>
-    <col min="15" max="15" width="26.1562" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.4531" style="15" customWidth="1"/>
+    <col min="2" max="3" width="16.3516" style="15" customWidth="1"/>
+    <col min="4" max="4" width="56.875" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1756,1114 +1938,1321 @@
         <v>6</v>
       </c>
       <c r="B1" t="s" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s" s="7">
-        <v>18</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" t="s" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="10"/>
+      <c r="D6" t="s" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="26.6172" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.4922" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.6719" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="18" customWidth="1"/>
+    <col min="5" max="6" width="13.5625" style="18" customWidth="1"/>
+    <col min="7" max="14" width="10.9219" style="18" customWidth="1"/>
+    <col min="15" max="15" width="26.1562" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="16.3516" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>44</v>
       </c>
       <c r="E1" t="s" s="7">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s" s="7">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s" s="7">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s" s="7">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s" s="7">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s" s="7">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s" s="7">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s" s="7">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s" s="7">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N1" t="s" s="7">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O2" s="11"/>
+      <c r="A2" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O3" s="11"/>
+      <c r="A3" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" t="s" s="16">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s" s="10">
-        <v>46</v>
-      </c>
+      <c r="A4" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" t="s" s="17">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s" s="10">
-        <v>48</v>
-      </c>
+      <c r="A5" t="s" s="19">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s" s="14">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" t="s" s="18">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O6" t="s" s="10">
-        <v>50</v>
+      <c r="A6" t="s" s="20">
+        <v>72</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" t="s" s="21">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s" s="21">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s" s="21">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s" s="21">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s" s="21">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="21">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s" s="21">
+        <v>59</v>
+      </c>
+      <c r="M6" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s" s="21">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s" s="21">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="20.25" customHeight="1">
-      <c r="A7" t="s" s="18">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s" s="10">
-        <v>52</v>
+      <c r="A7" t="s" s="22">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" t="s" s="18">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" t="s" s="10">
-        <v>54</v>
+      <c r="A8" t="s" s="23">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s" s="9">
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="20.25" customHeight="1">
-      <c r="A9" t="s" s="18">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K9" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s" s="10">
+      <c r="A9" t="s" s="23">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s" s="9">
         <v>56</v>
       </c>
+      <c r="C9" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s" s="9">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" ht="20.25" customHeight="1">
-      <c r="A10" t="s" s="18">
+      <c r="A10" t="s" s="23">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="B10" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K10" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O10" t="s" s="10">
+      <c r="D10" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s" s="9">
         <v>58</v>
       </c>
+      <c r="H10" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" t="s" s="9">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" ht="20.25" customHeight="1">
-      <c r="A11" t="s" s="18">
+      <c r="A11" t="s" s="23">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="M11" s="10"/>
+      <c r="N11" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O11" t="s" s="9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" t="s" s="23">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="C11" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I11" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N11" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O11" t="s" s="13">
+      <c r="N12" t="s" s="9">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" ht="20.25" customHeight="1">
-      <c r="A12" t="s" s="18">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s" s="10">
+      <c r="O12" t="s" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" t="s" s="23">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="D12" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K12" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O12" t="s" s="19">
+      <c r="E13" t="s" s="9">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" t="s" s="18">
+      <c r="F13" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="B13" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s" s="10">
+      <c r="G13" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="G13" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K13" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M13" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N13" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s" s="10">
+      <c r="I13" t="s" s="9">
         <v>67</v>
       </c>
+      <c r="J13" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K13" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s" s="14">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" ht="20.25" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="A14" t="s" s="23">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s" s="9">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="B14" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M14" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N14" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O14" s="11"/>
+      <c r="K14" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M14" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O14" t="s" s="21">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" ht="20.25" customHeight="1">
-      <c r="A15" t="s" s="9">
+      <c r="A15" t="s" s="23">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s" s="9">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s" s="9">
         <v>69</v>
       </c>
-      <c r="B15" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L15" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M15" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N15" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O15" s="11"/>
+      <c r="L15" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M15" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O15" t="s" s="9">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" ht="20.25" customHeight="1">
-      <c r="A16" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K16" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L16" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M16" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N16" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s" s="10">
-        <v>46</v>
-      </c>
+      <c r="A16" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" ht="20.25" customHeight="1">
-      <c r="A17" t="s" s="17">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J17" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L17" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M17" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N17" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O17" t="s" s="10">
-        <v>48</v>
-      </c>
+      <c r="A17" t="s" s="8">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" ht="20.25" customHeight="1">
-      <c r="A18" t="s" s="18">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J18" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K18" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L18" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M18" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N18" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O18" t="s" s="10">
-        <v>50</v>
+      <c r="A18" t="s" s="24">
+        <v>97</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L18" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M18" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O18" t="s" s="9">
+        <v>73</v>
       </c>
     </row>
     <row r="19" ht="20.25" customHeight="1">
-      <c r="A19" t="s" s="18">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J19" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K19" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L19" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M19" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N19" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O19" t="s" s="10">
-        <v>52</v>
+      <c r="A19" t="s" s="22">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M19" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O19" t="s" s="9">
+        <v>75</v>
       </c>
     </row>
     <row r="20" ht="20.25" customHeight="1">
-      <c r="A20" t="s" s="18">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J20" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K20" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M20" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" t="s" s="10">
-        <v>54</v>
+      <c r="A20" t="s" s="23">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N20" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s" s="9">
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="20.25" customHeight="1">
-      <c r="A21" t="s" s="18">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J21" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K21" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O21" t="s" s="10">
+      <c r="A21" t="s" s="23">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s" s="9">
         <v>56</v>
       </c>
+      <c r="C21" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J21" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L21" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M21" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O21" t="s" s="9">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" ht="20.25" customHeight="1">
-      <c r="A22" t="s" s="18">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K22" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N22" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O22" t="s" s="10">
+      <c r="A22" t="s" s="23">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s" s="9">
         <v>58</v>
       </c>
+      <c r="H22" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M22" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" t="s" s="9">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" ht="20.25" customHeight="1">
-      <c r="A23" t="s" s="18">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s" s="10">
+      <c r="A23" t="s" s="23">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O23" t="s" s="9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" ht="20.25" customHeight="1">
+      <c r="A24" t="s" s="23">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I24" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K24" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="C23" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J23" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K23" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L23" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M23" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N23" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O23" t="s" s="13">
+      <c r="N24" t="s" s="9">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" ht="20.25" customHeight="1">
-      <c r="A24" t="s" s="18">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="10">
+      <c r="O24" t="s" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" ht="20.25" customHeight="1">
+      <c r="A25" t="s" s="23">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s" s="9">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="D24" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="F24" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="J24" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="K24" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="L24" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="M24" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="N24" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="O24" t="s" s="19">
+      <c r="E25" t="s" s="9">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" ht="20.25" customHeight="1">
-      <c r="A25" t="s" s="16">
-        <v>79</v>
-      </c>
-      <c r="B25" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="F25" t="s" s="13">
+      <c r="F25" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="G25" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s" s="13">
-        <v>42</v>
-      </c>
-      <c r="J25" t="s" s="13">
-        <v>43</v>
-      </c>
-      <c r="K25" t="s" s="13">
-        <v>44</v>
-      </c>
-      <c r="L25" t="s" s="13">
-        <v>34</v>
-      </c>
-      <c r="M25" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="N25" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="O25" t="s" s="13">
+      <c r="I25" t="s" s="9">
         <v>67</v>
+      </c>
+      <c r="J25" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M25" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" ht="20.25" customHeight="1">
+      <c r="A26" t="s" s="23">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="J26" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="K26" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="L26" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="M26" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="O26" t="s" s="21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" ht="20.25" customHeight="1">
+      <c r="A27" t="s" s="24">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s" s="14">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="J27" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="K27" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="M27" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="O27" t="s" s="14">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2879,8 +3268,8 @@
     <hyperlink ref="E11" r:id="rId9" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E12" r:id="rId10" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E13" r:id="rId11" location="" tooltip="" display="http://www.linkedin.com/test123"/>
-    <hyperlink ref="E15" r:id="rId12" location="" tooltip="" display="http://www.linkedin.com/test123"/>
-    <hyperlink ref="E16" r:id="rId13" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E14" r:id="rId12" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E15" r:id="rId13" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E17" r:id="rId14" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E18" r:id="rId15" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E19" r:id="rId16" location="" tooltip="" display="http://www.linkedin.com/test123"/>
@@ -2890,6 +3279,8 @@
     <hyperlink ref="E23" r:id="rId20" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E24" r:id="rId21" location="" tooltip="" display="http://www.linkedin.com/test123"/>
     <hyperlink ref="E25" r:id="rId22" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E26" r:id="rId23" location="" tooltip="" display="http://www.linkedin.com/test123"/>
+    <hyperlink ref="E27" r:id="rId24" location="" tooltip="" display="http://www.linkedin.com/test123"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
